--- a/stats/summers/table_2021_2022.xlsx
+++ b/stats/summers/table_2021_2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -35,46 +35,109 @@
     <t xml:space="preserve">Total active hours</t>
   </si>
   <si>
+    <t xml:space="preserve">1002.66666666667</t>
+  </si>
+  <si>
     <t xml:space="preserve">% active hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR</t>
+    <t xml:space="preserve">34.8148148148148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.34999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.6666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73719582695457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.26666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean PAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322.963484929542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. PAR</t>
   </si>
   <si>
     <t xml:space="preserve">Max Par</t>
   </si>
   <si>
+    <t xml:space="preserve">1307</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAX Yield</t>
   </si>
   <si>
-    <t xml:space="preserve">Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETR</t>
+    <t xml:space="preserve">0.594333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401324721113665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.4490796986253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Dev. ETR </t>
   </si>
   <si>
     <t xml:space="preserve">Max ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">mean air T</t>
+    <t xml:space="preserve">304.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean air T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. air T</t>
   </si>
   <si>
     <t xml:space="preserve">min air T</t>
@@ -83,7 +146,10 @@
     <t xml:space="preserve">max air T</t>
   </si>
   <si>
-    <t xml:space="preserve">RH (%)</t>
+    <t xml:space="preserve">mean RH (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. RH</t>
   </si>
 </sst>
 </file>
@@ -451,13 +517,13 @@
       <c r="E2" t="n">
         <v>899</v>
       </c>
-      <c r="F2" t="n">
-        <v>1002.66666666667</v>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>40.8333333333333</v>
@@ -471,13 +537,13 @@
       <c r="E3" t="n">
         <v>31.2152777777778</v>
       </c>
-      <c r="F3" t="n">
-        <v>34.8148148148148</v>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>-4.88857638888884</v>
@@ -491,308 +557,448 @@
       <c r="E4" t="n">
         <v>-5.34999999999996</v>
       </c>
-      <c r="F4" t="n">
-        <v>-5.34999999999996</v>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>-19.4</v>
+        <v>6.6649397655358</v>
       </c>
       <c r="C5" t="n">
-        <v>-19.7</v>
+        <v>8.17215275433715</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.4</v>
+        <v>7.34525906737521</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-19.6666666666667</v>
+        <v>7.67305204486608</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>-19.4</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>-19.7</v>
       </c>
       <c r="D6" t="n">
-        <v>9.5</v>
+        <v>-19.4</v>
       </c>
       <c r="E6" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11.4333333333333</v>
+        <v>-19.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.98596938775511</v>
-      </c>
       <c r="C7" t="n">
-        <v>2.37256162915327</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.44905450500556</v>
+        <v>9.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.38997134670487</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.73719582695457</v>
+        <v>12.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.4</v>
+        <v>0.98596938775511</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.2</v>
+        <v>2.37256162915327</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.9</v>
+        <v>1.44905450500556</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-5.26666666666667</v>
+        <v>1.38997134670487</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.61186140437387</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.85460955022473</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.39064311322261</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.73200433834266</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.37256162915327</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.44905450500556</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.38997134670487</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.73719582695457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>201.844387755102</v>
+        <v>-4.4</v>
       </c>
       <c r="C10" t="n">
-        <v>394.644158628083</v>
+        <v>-6.2</v>
       </c>
       <c r="D10" t="n">
-        <v>368.978865406006</v>
+        <v>-3.9</v>
       </c>
       <c r="E10" t="n">
-        <v>205.267430754536</v>
-      </c>
-      <c r="F10" t="n">
-        <v>322.963484929542</v>
+        <v>-5.7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>1360</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>1257</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>1718</v>
+        <v>9.5</v>
       </c>
       <c r="E11" t="n">
-        <v>946</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1307</v>
+        <v>12.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.471</v>
+        <v>201.844387755102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.488</v>
+        <v>394.644158628083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.673</v>
+        <v>368.978865406006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.622</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.594333333333333</v>
+        <v>205.267430754536</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>0.296319727891156</v>
+        <v>200.866977307698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.293637727759914</v>
+        <v>276.981166099978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.527319243604004</v>
+        <v>310.786018735517</v>
       </c>
       <c r="E13" t="n">
-        <v>0.383017191977077</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.401324721113665</v>
+        <v>159.33008991398</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>22.9789115646259</v>
+        <v>1360</v>
       </c>
       <c r="C14" t="n">
-        <v>51.2222936763129</v>
+        <v>1257</v>
       </c>
       <c r="D14" t="n">
-        <v>79.5078976640712</v>
+        <v>1718</v>
       </c>
       <c r="E14" t="n">
-        <v>80.6170477554919</v>
-      </c>
-      <c r="F14" t="n">
-        <v>70.4490796986253</v>
+        <v>946</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>141.7</v>
+        <v>0.471</v>
       </c>
       <c r="C15" t="n">
-        <v>155.2</v>
+        <v>0.488</v>
       </c>
       <c r="D15" t="n">
-        <v>404.8</v>
+        <v>0.673</v>
       </c>
       <c r="E15" t="n">
-        <v>352.858</v>
-      </c>
-      <c r="F15" t="n">
-        <v>304.286</v>
+        <v>0.622</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.296319727891156</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.293637727759914</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.527319243604004</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>0.383017191977077</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.112094958917582</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.107755055008153</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.075463138519088</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
+        <v>0.109838590470487</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>22.9789115646259</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>51.2222936763129</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>79.5078976640712</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>80.6170477554919</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>23.9938906587064</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>36.6499997993362</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.025921456221</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
+        <v>64.7122500304055</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>404.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>352.858</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
